--- a/docs/instruments/instruments_funds.xlsx
+++ b/docs/instruments/instruments_funds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/473b92f90a934bc4/1 Projects/hedgemind/media/reference_data/instruments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/473b92f90a934bc4/1 Projects/hedgemind/docs/instruments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{36531CBE-0095-4708-A819-05325FD14F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19F9EA80-5F79-4E77-B52E-71F6039A3143}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{36531CBE-0095-4708-A819-05325FD14F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56012FAF-2627-439B-8347-79817421A1A0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="54300" yWindow="9210" windowWidth="7500" windowHeight="6000" xr2:uid="{6A5695E8-C4FF-4412-8B74-C1EE0AA69659}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6A5695E8-C4FF-4412-8B74-C1EE0AA69659}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUMENTS" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>CM</t>
   </si>
   <si>
-    <t>MARK_TO_MARKET</t>
-  </si>
-  <si>
     <t>FCP AB AVENIR</t>
   </si>
   <si>
@@ -395,16 +392,19 @@
     <t>maturity</t>
   </si>
   <si>
-    <t>DIVERSIFIED</t>
-  </si>
-  <si>
-    <t>MONEY_MARKET</t>
-  </si>
-  <si>
-    <t>BOND</t>
-  </si>
-  <si>
-    <t>EQUITY</t>
+    <t>mark_to_market</t>
+  </si>
+  <si>
+    <t>diversified</t>
+  </si>
+  <si>
+    <t>money_market</t>
+  </si>
+  <si>
+    <t>bond</t>
+  </si>
+  <si>
+    <t>equity</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V4"/>
+      <selection activeCell="N2" sqref="N2:N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -847,64 +847,64 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>110</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>111</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" t="s">
         <v>112</v>
       </c>
-      <c r="P1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>118</v>
-      </c>
-      <c r="R1" t="s">
-        <v>119</v>
-      </c>
-      <c r="S1" t="s">
-        <v>116</v>
-      </c>
-      <c r="T1" t="s">
-        <v>117</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>113</v>
-      </c>
-      <c r="V1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>95</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="1"/>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
         <v>120</v>
@@ -915,28 +915,28 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L3" t="s">
         <v>121</v>
@@ -947,28 +947,28 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
         <v>120</v>
@@ -979,28 +979,28 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
         <v>95</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>96</v>
-      </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
         <v>121</v>
@@ -1011,28 +1011,28 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
         <v>95</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>96</v>
-      </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L6" t="s">
         <v>122</v>
@@ -1043,28 +1043,28 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>95</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>96</v>
-      </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s">
         <v>122</v>
@@ -1075,28 +1075,28 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
         <v>95</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>96</v>
-      </c>
       <c r="H8" t="s">
         <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s">
         <v>122</v>
@@ -1107,28 +1107,28 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>95</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>96</v>
-      </c>
       <c r="H9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
         <v>120</v>
@@ -1139,28 +1139,28 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
         <v>121</v>
@@ -1171,28 +1171,28 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
         <v>122</v>
@@ -1203,28 +1203,28 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
         <v>122</v>
@@ -1235,28 +1235,28 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
         <v>122</v>
@@ -1267,28 +1267,28 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s">
         <v>122</v>
@@ -1299,28 +1299,28 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L15" t="s">
         <v>122</v>
@@ -1331,28 +1331,28 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L16" t="s">
         <v>122</v>
@@ -1363,28 +1363,28 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L17" t="s">
         <v>122</v>
@@ -1395,28 +1395,28 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L18" t="s">
         <v>120</v>
@@ -1427,28 +1427,28 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L19" t="s">
         <v>121</v>
@@ -1459,28 +1459,28 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L20" t="s">
         <v>122</v>
@@ -1491,28 +1491,28 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H21" t="s">
         <v>11</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L21" t="s">
         <v>120</v>
@@ -1523,28 +1523,28 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
       </c>
       <c r="K22" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L22" t="s">
         <v>122</v>
@@ -1555,28 +1555,28 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L23" t="s">
         <v>122</v>
@@ -1587,28 +1587,28 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L24" t="s">
         <v>122</v>
@@ -1619,28 +1619,28 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L25" t="s">
         <v>121</v>
@@ -1651,28 +1651,28 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L26" t="s">
         <v>121</v>
@@ -1683,28 +1683,28 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
       </c>
       <c r="K27" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L27" t="s">
         <v>122</v>
@@ -1715,28 +1715,28 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
       </c>
       <c r="K28" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L28" t="s">
         <v>121</v>
@@ -1747,28 +1747,28 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
       </c>
       <c r="K29" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L29" t="s">
         <v>122</v>
@@ -1779,28 +1779,28 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
       </c>
       <c r="K30" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L30" t="s">
         <v>123</v>
@@ -1811,28 +1811,28 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H31" t="s">
         <v>11</v>
       </c>
       <c r="K31" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L31" t="s">
         <v>121</v>
@@ -1843,28 +1843,28 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
       </c>
       <c r="K32" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L32" t="s">
         <v>122</v>
@@ -1875,28 +1875,28 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
         <v>75</v>
       </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
       </c>
       <c r="K33" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L33" t="s">
         <v>122</v>
@@ -1907,28 +1907,28 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
         <v>77</v>
       </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H34" t="s">
         <v>11</v>
       </c>
       <c r="K34" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L34" t="s">
         <v>120</v>
@@ -1939,28 +1939,28 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
         <v>79</v>
       </c>
-      <c r="C35" t="s">
-        <v>80</v>
-      </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
       </c>
       <c r="K35" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L35" t="s">
         <v>121</v>
@@ -1971,28 +1971,28 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
         <v>81</v>
       </c>
-      <c r="C36" t="s">
-        <v>82</v>
-      </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
       </c>
       <c r="K36" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L36" t="s">
         <v>122</v>
@@ -2003,28 +2003,28 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
         <v>83</v>
       </c>
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H37" t="s">
         <v>11</v>
       </c>
       <c r="K37" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L37" t="s">
         <v>122</v>
@@ -2035,28 +2035,28 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
         <v>85</v>
       </c>
-      <c r="C38" t="s">
-        <v>86</v>
-      </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
       </c>
       <c r="K38" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L38" t="s">
         <v>122</v>
@@ -2067,28 +2067,28 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
         <v>87</v>
       </c>
-      <c r="C39" t="s">
-        <v>88</v>
-      </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
       </c>
       <c r="K39" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L39" t="s">
         <v>122</v>
@@ -2099,28 +2099,28 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
         <v>89</v>
       </c>
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
         <v>95</v>
       </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
-        <v>96</v>
-      </c>
       <c r="H40" t="s">
         <v>11</v>
       </c>
       <c r="K40" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L40" t="s">
         <v>123</v>
